--- a/NanoXlsx Test/Resources/tampered.xlsx
+++ b/NanoXlsx Test/Resources/tampered.xlsx
@@ -79,6 +79,9 @@
       <c r="G1" s="3">
         <v>-1.5</v>
       </c>
+      <c r="H1" t="z">
+        <v>y</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/NanoXlsx Test/Resources/tampered.xlsx
+++ b/NanoXlsx Test/Resources/tampered.xlsx
@@ -82,6 +82,12 @@
       <c r="H1" t="z">
         <v>y</v>
       </c>
+      <c r="I1" t="b">
+        <v>true</v>
+      </c>
+      <c r="J1" t="b">
+        <v>FALSE</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/NanoXlsx Test/Resources/tampered.xlsx
+++ b/NanoXlsx Test/Resources/tampered.xlsx
@@ -88,6 +88,12 @@
       <c r="J1" t="b">
         <v>FALSE</v>
       </c>
+      <c r="K1" s="2">
+        <v>z</v>
+      </c>
+      <c r="L1" s="3">
+        <v>z</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/NanoXlsx Test/Resources/tampered.xlsx
+++ b/NanoXlsx Test/Resources/tampered.xlsx
@@ -67,10 +67,10 @@
       <c r="C1" s="2">
         <v>-1.8538541667</v>
       </c>
-      <c t="b" r="D1" s="2">
+      <c t="b" r="D1">
         <v>2</v>
       </c>
-      <c t="b" r="E1" s="2">
+      <c t="b" r="E1">
         <v>x</v>
       </c>
       <c t="s" r="F1">

--- a/NanoXlsx Test/Resources/tampered.xlsx
+++ b/NanoXlsx Test/Resources/tampered.xlsx
@@ -94,6 +94,9 @@
       <c r="L1" s="3">
         <v>z</v>
       </c>
+      <c t="s" r="M1">
+        <v>a</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/NanoXlsx Test/Resources/tampered.xlsx
+++ b/NanoXlsx Test/Resources/tampered.xlsx
@@ -98,6 +98,7 @@
         <v>a</v>
       </c>
     </row>
+    <sheetProtection sheet="1" objects="2" scenarios="true" insertColumns="" insertHyperlinks="f" deleteRows="no" autoFilter="-1"/>
   </sheetData>
 </worksheet>
 </file>